--- a/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>IMPL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,67 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="H7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44012</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,17 +744,20 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,17 +776,20 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +824,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,17 +886,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,8 +918,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,46 +963,50 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E17" s="3">
         <v>24500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9900</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,17 +1041,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,17 +1071,20 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-24200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,23 +1103,26 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,37 +1135,43 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-12900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-12900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-13100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,17 +1423,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,37 +1455,43 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-13100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-13100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="H38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44012</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1618,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E41" s="3">
         <v>111300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,23 +1680,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,17 +1712,20 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,23 +1744,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,23 +1776,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E46" s="3">
         <v>118200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>65600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,23 +1840,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,23 +1968,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2032,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E54" s="3">
         <v>121500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,23 +2094,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2124,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2004,11 +2139,11 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,23 +2156,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,23 +2188,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E60" s="3">
         <v>16300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,23 +2220,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E61" s="3">
         <v>29300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2108,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2137,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,23 +2380,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E66" s="3">
         <v>45600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,11 +2505,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>127200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,23 +2554,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-214800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-190100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-165000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-149600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,23 +2682,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E76" s="3">
         <v>75900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-144400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="H80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44012</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-13100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2641,28 +2841,31 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-8700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2860,25 +3082,28 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,25 +3178,28 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>67700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>72600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E102" s="3">
         <v>50300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-9100</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>IMPL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,81 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,23 +755,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,23 +793,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,14 +938,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -921,8 +961,14 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,55 +1016,63 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F17" s="3">
         <v>24800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>24500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-24400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1088,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,23 +1108,25 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,23 +1142,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-24200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,28 +1180,34 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>500</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1138,40 +1218,52 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-24700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-25000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-12900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-24700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-25000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-12900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-24700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-25000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-14200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,23 +1560,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1458,40 +1598,52 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-24700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-25000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-14200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-24700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-25000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-14200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,29 +1791,31 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>129800</v>
+      </c>
+      <c r="F41" s="3">
         <v>88200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>111300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>60900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,29 +1863,35 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,23 +1901,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F44" s="3">
         <v>2800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,29 +1939,35 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,29 +1977,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>142200</v>
+      </c>
+      <c r="F46" s="3">
         <v>94600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>118200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>65600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +2015,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,29 +2053,35 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +2091,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1980,20 +2220,20 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,29 +2281,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>147800</v>
+      </c>
+      <c r="F54" s="3">
         <v>97900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>121500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>69200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>11500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,29 +2355,31 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,29 +2389,35 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2159,29 +2427,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,29 +2465,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F60" s="3">
         <v>16000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>13400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,29 +2503,35 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F61" s="3">
         <v>29500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>29300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>8900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>15300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2255,31 +2541,37 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>49200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2287,8 +2579,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,29 +2693,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>120300</v>
+      </c>
+      <c r="F66" s="3">
         <v>45400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>45600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>17900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>28700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2508,14 +2844,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>127200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2525,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,29 +2899,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-267000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-241800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-214800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-190100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-165000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-149600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,29 +3051,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F76" s="3">
         <v>52500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>75900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>51300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-144400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-24700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-25000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-14200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2844,13 +3242,13 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -2858,14 +3256,20 @@
       <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-23200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-17200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-9900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-10300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-9600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>65800</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>67700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>72600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>10000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>41600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-23100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>50300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>56500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-8600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>IMPL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -761,26 +765,29 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,26 +806,29 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E12" s="3">
         <v>4000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,17 +958,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,64 +1044,68 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E17" s="3">
         <v>23800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,26 +1143,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-9900</v>
       </c>
       <c r="E20" s="3">
-        <v>700</v>
+        <v>-4200</v>
       </c>
       <c r="F20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,26 +1182,29 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-23000</v>
+        <v>-30800</v>
       </c>
       <c r="E21" s="3">
-        <v>-25000</v>
+        <v>-24900</v>
       </c>
       <c r="F21" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-23600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,32 +1223,35 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,26 +1633,29 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>9900</v>
       </c>
       <c r="E32" s="3">
-        <v>-700</v>
+        <v>4200</v>
       </c>
       <c r="F32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,32 +1879,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E41" s="3">
         <v>97800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>88200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>111300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>60900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,32 +1959,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E43" s="3">
         <v>4800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,26 +2000,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E44" s="3">
         <v>6900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1500</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,32 +2041,35 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,32 +2082,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E46" s="3">
         <v>114400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>142200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>94600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>118200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>65600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,32 +2164,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
         <v>5800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2226,17 +2346,17 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,32 +2410,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E54" s="3">
         <v>120400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>147800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,32 +2487,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2406,8 +2540,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2416,11 +2550,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,32 +2567,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E59" s="3">
         <v>13500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,32 +2608,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,32 +2649,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E61" s="3">
         <v>47200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2547,20 +2690,23 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E62" s="3">
         <v>51000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2719,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,32 +2854,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E66" s="3">
         <v>116500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>120300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2850,11 +3018,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>127200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,32 +3076,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-298100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-267000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-241800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-214800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-190100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-165000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-149600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,32 +3240,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-144400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3248,10 +3447,10 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -3262,14 +3461,17 @@
       <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>300</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3521,10 +3742,10 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -3533,25 +3754,28 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3635,10 +3865,10 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -3647,25 +3877,28 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>65800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>67700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>72600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>41600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>IMPL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,101 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,8 +775,14 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,23 +790,23 @@
         <v>1500</v>
       </c>
       <c r="E9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,32 +822,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -850,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +892,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>3200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,32 +982,38 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1029,14 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,73 +1096,81 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F17" s="3">
         <v>24300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>23800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>27800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>24800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>24500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>13000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-21000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-26000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-24200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-24400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1186,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,32 +1209,34 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,32 +1252,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-24900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-26700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-23600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-24200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1299,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1240,23 +1319,23 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>500</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1267,49 +1346,61 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-31100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-25200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-27000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-24700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-25000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-9100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-12900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-31100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-25200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-27000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-24700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-25000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-31100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-25200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-24700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-25000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-11400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-13100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,32 +1769,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F32" s="3">
         <v>9900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,49 +1816,61 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-31100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-25200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-24700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-25000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-11400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-13100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-31100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-25200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-24700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-25000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-11400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-13100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,38 +2051,40 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F41" s="3">
         <v>79700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>97800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>129800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>88200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>111300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>60900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2094,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,38 +2141,44 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F43" s="3">
         <v>6200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,32 +2188,38 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F44" s="3">
         <v>8600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,38 +2235,44 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,38 +2282,44 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>79800</v>
+      </c>
+      <c r="F46" s="3">
         <v>99300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>114400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>142200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>94600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>118200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>65600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2329,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,38 +2376,44 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2423,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,16 +2564,22 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2349,20 +2588,20 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,38 +2658,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>88600</v>
+      </c>
+      <c r="F54" s="3">
         <v>105200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>120400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>147800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>97900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>121500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>69200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2705,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,38 +2747,40 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,19 +2790,25 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2553,14 +2820,14 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,38 +2837,44 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F59" s="3">
         <v>15200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>15000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,38 +2884,44 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F60" s="3">
         <v>20000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>24000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>16000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,38 +2931,44 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F61" s="3">
         <v>47400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>47200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>47100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>29500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>29300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>15300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2693,26 +2978,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>62500</v>
+      </c>
+      <c r="F62" s="3">
         <v>60100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>51000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>49200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2722,11 +3013,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,38 +3166,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>132700</v>
+      </c>
+      <c r="F66" s="3">
         <v>127500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>116500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>120300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>45400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>45600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>28700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3213,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3021,14 +3356,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>127200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,38 +3420,44 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-351200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-321100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-298100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-267000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-241800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-214800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-190100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-165000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-149600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3467,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,38 +3608,44 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-72900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-22300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>52500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>75900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>51300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-144400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3655,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-31100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-25200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-24700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-25000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-11400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-13100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3450,13 +3847,13 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -3464,14 +3861,20 @@
       <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-22700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-28800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-24200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-23200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-17200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-16000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-10300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-9600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-8700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4172,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>65800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>67700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>72600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-18100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-32000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>41600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-23100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>50300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>56500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-8600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-9100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>IMPL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -781,35 +785,38 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,35 +835,38 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="E10" s="3">
         <v>2900</v>
       </c>
       <c r="F10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6800</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,35 +1005,38 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,82 +1124,86 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>28800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,35 +1244,36 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,35 +1292,38 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-22700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1325,21 +1365,21 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,35 +1842,38 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>5700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2139,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E41" s="3">
         <v>35500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>79700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>129800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>88200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>111300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,41 +2237,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E43" s="3">
         <v>6300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,35 +2287,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E44" s="3">
         <v>8000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,41 +2337,44 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,41 +2387,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E46" s="3">
         <v>51900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>79800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>99300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>114400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>142200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>94600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>118200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>65600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,41 +2487,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
         <v>8900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,19 +2687,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2594,17 +2714,17 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2787,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E54" s="3">
         <v>64700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>88600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>105200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>120400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>147800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +2879,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6100</v>
+        <v>3500</v>
       </c>
       <c r="E57" s="3">
         <v>6100</v>
       </c>
       <c r="F57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2826,11 +2960,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,41 +2977,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16100</v>
+        <v>69900</v>
       </c>
       <c r="E59" s="3">
         <v>16100</v>
       </c>
       <c r="F59" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G59" s="3">
         <v>15200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,41 +3027,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>121200</v>
+      </c>
+      <c r="E60" s="3">
         <v>22300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,41 +3077,44 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>48100</v>
       </c>
       <c r="F61" s="3">
+        <v>48100</v>
+      </c>
+      <c r="G61" s="3">
         <v>47400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>47100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,29 +3127,32 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>67300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>62500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>60100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>51000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>49200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3019,8 +3165,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3327,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E66" s="3">
         <v>137600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>132700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>127500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>116500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>120300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3362,11 +3530,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>127200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3597,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-358500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-351200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-321100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-298100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-267000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-241800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-214800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-190100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-165000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-149600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3797,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-72900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-44200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-22300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-144400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,13 +4024,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -3853,10 +4052,10 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -3867,14 +4066,17 @@
       <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>300</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,28 +4394,29 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-1000</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -4204,25 +4425,28 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,28 +4542,31 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>-1000</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -4345,25 +4575,28 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,46 +4824,49 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>65800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>67700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>72600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>41600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>50300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>56500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMPL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>IMPL</t>
   </si>
@@ -794,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E9" s="3">
         <v>1500</v>
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E10" s="3">
         <v>2900</v>
@@ -1014,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>2300</v>
@@ -1130,8 +1130,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>22700</v>
       </c>
       <c r="E17" s="3">
         <v>28800</v>
@@ -1180,8 +1180,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-16100</v>
       </c>
       <c r="E18" s="3">
         <v>-24400</v>
@@ -1250,8 +1250,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>8700</v>
       </c>
       <c r="E20" s="3">
         <v>-5700</v>
@@ -1300,8 +1300,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-7400</v>
       </c>
       <c r="E21" s="3">
         <v>-29800</v>
@@ -1401,7 +1401,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7400</v>
+        <v>-7400</v>
       </c>
       <c r="E23" s="3">
         <v>-30100</v>
@@ -1550,8 +1550,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-7400</v>
       </c>
       <c r="E26" s="3">
         <v>-30100</v>
@@ -1600,8 +1600,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-7400</v>
       </c>
       <c r="E27" s="3">
         <v>-30100</v>
@@ -1850,8 +1850,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-8700</v>
       </c>
       <c r="E32" s="3">
         <v>5700</v>
@@ -1900,8 +1900,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-7400</v>
       </c>
       <c r="E33" s="3">
         <v>-30100</v>
@@ -2000,8 +2000,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-7400</v>
       </c>
       <c r="E35" s="3">
         <v>-30100</v>
@@ -2986,7 +2986,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>69900</v>
+        <v>117800</v>
       </c>
       <c r="E59" s="3">
         <v>16100</v>
@@ -3960,8 +3960,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-7400</v>
       </c>
       <c r="E81" s="3">
         <v>-30100</v>
@@ -4921,7 +4921,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70700</v>
+        <v>-20300</v>
       </c>
       <c r="E102" s="3">
         <v>-25200</v>
